--- a/海峡两岸汉字对照表附注.xlsx
+++ b/海峡两岸汉字对照表附注.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23160" windowHeight="11620" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="23160" windowHeight="11620" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="脚注说明" sheetId="1" r:id="rId1"/>
@@ -1472,10 +1472,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1515,13 +1515,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1530,9 +1523,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,10 +1552,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -1568,9 +1576,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1578,14 +1586,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1605,9 +1621,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1618,21 +1633,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1657,7 +1657,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,13 +1687,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,25 +1711,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,7 +1771,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,103 +1825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1872,11 +1872,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1896,17 +1902,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1944,85 +1944,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2031,29 +2031,29 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2062,19 +2062,19 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -16196,8 +16196,8 @@
   <sheetPr/>
   <dimension ref="A1:AU167"/>
   <sheetViews>
-    <sheetView topLeftCell="Z19" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -16209,22 +16209,12 @@
       <c r="D1" s="1">
         <v>110</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
       <c r="I1" s="1">
         <v>85</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
       <c r="O1" s="1">
         <v>5</v>
       </c>
-      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1">
@@ -16283,23 +16273,15 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1">
         <v>4</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
       <c r="Q2" s="1">
         <v>1</v>
       </c>
@@ -16374,7 +16356,6 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
       <c r="G3" s="1">
         <v>10</v>
       </c>
@@ -16387,12 +16368,6 @@
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
       <c r="Q3" s="1">
         <v>5</v>
       </c>
@@ -16459,23 +16434,15 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="1"/>
       <c r="G4" s="1">
         <v>10</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
       <c r="Q4" s="1">
         <v>5</v>
       </c>
@@ -16541,14 +16508,12 @@
       <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>12</v>
       </c>
@@ -16561,12 +16526,6 @@
       <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
       <c r="Q5" s="1">
         <v>6</v>
       </c>
@@ -16639,7 +16598,6 @@
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1">
         <v>13</v>
       </c>
@@ -16652,12 +16610,6 @@
       <c r="J6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
       <c r="Q6" s="1">
         <v>11</v>
       </c>
@@ -16727,14 +16679,12 @@
       <c r="B7" s="1">
         <v>7</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1">
         <v>21</v>
       </c>
@@ -16747,12 +16697,6 @@
       <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
       <c r="Q7" s="1">
         <v>13</v>
       </c>
@@ -16819,23 +16763,15 @@
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1">
         <v>22</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
       <c r="Q8" s="1">
         <v>13</v>
       </c>
@@ -16889,30 +16825,21 @@
       <c r="B9" s="1">
         <v>61</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1">
         <v>22</v>
       </c>
-      <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
       <c r="Q9" s="1">
         <v>16</v>
       </c>
@@ -16977,7 +16904,6 @@
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1"/>
       <c r="G10" s="1">
         <v>29</v>
       </c>
@@ -16990,12 +16916,6 @@
       <c r="J10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
       <c r="Q10" s="1">
         <v>17</v>
       </c>
@@ -17053,30 +16973,21 @@
       <c r="B11" s="1">
         <v>103</v>
       </c>
-      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>29</v>
       </c>
-      <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
       <c r="Q11" s="1">
         <v>18</v>
       </c>
@@ -17141,7 +17052,6 @@
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1"/>
       <c r="G12" s="1">
         <v>32</v>
       </c>
@@ -17154,12 +17064,6 @@
       <c r="J12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
       <c r="Q12" s="1">
         <v>18</v>
       </c>
@@ -17226,23 +17130,15 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="1"/>
       <c r="G13" s="1">
         <v>34</v>
       </c>
-      <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
       <c r="Q13" s="1">
         <v>21</v>
       </c>
@@ -17273,14 +17169,12 @@
       <c r="B14" s="1">
         <v>214</v>
       </c>
-      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>438</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1"/>
       <c r="G14" s="1">
         <v>35</v>
       </c>
@@ -17293,12 +17187,6 @@
       <c r="J14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
       <c r="Q14" s="1">
         <v>29</v>
       </c>
@@ -17355,7 +17243,6 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15" s="1"/>
       <c r="G15" s="1">
         <v>38</v>
       </c>
@@ -17368,12 +17255,6 @@
       <c r="J15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
       <c r="Q15" s="1">
         <v>31</v>
       </c>
@@ -17430,30 +17311,21 @@
       <c r="B16" s="1">
         <v>21</v>
       </c>
-      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="1"/>
       <c r="G16" s="1">
         <v>38</v>
       </c>
-      <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
         <v>76</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
       <c r="Q16" s="1">
         <v>33</v>
       </c>
@@ -17485,14 +17357,12 @@
       <c r="B17" s="1">
         <v>201</v>
       </c>
-      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>405</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="1"/>
       <c r="G17" s="1">
         <v>39</v>
       </c>
@@ -17505,12 +17375,6 @@
       <c r="J17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
       <c r="Q17" s="1">
         <v>33</v>
       </c>
@@ -17574,23 +17438,15 @@
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="1"/>
       <c r="G18" s="1">
         <v>40</v>
       </c>
-      <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
         <v>81</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
       <c r="Q18" s="1">
         <v>40</v>
       </c>
@@ -17662,7 +17518,6 @@
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="1"/>
       <c r="G19" s="1">
         <v>42</v>
       </c>
@@ -17675,12 +17530,6 @@
       <c r="J19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
       <c r="Q19" s="1">
         <v>40</v>
       </c>
@@ -17716,23 +17565,15 @@
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" s="1"/>
       <c r="G20" s="1">
         <v>45</v>
       </c>
-      <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
         <v>90</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
       <c r="Q20" s="1">
         <v>43</v>
       </c>
@@ -17773,7 +17614,6 @@
       <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="1"/>
       <c r="G21" s="1">
         <v>46</v>
       </c>
@@ -17786,12 +17626,6 @@
       <c r="J21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
       <c r="Q21" s="1">
         <v>46</v>
       </c>
@@ -17855,7 +17689,6 @@
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="1"/>
       <c r="G22" s="1">
         <v>51</v>
       </c>
@@ -17868,12 +17701,6 @@
       <c r="J22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
       <c r="Q22" s="1">
         <v>48</v>
       </c>
@@ -17924,14 +17751,12 @@
       <c r="B23" s="1">
         <v>71</v>
       </c>
-      <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>147</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="1"/>
       <c r="G23" s="1">
         <v>52</v>
       </c>
@@ -17944,12 +17769,6 @@
       <c r="J23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
       <c r="Q23" s="1">
         <v>51</v>
       </c>
@@ -18005,14 +17824,12 @@
       <c r="B24" s="1">
         <v>76</v>
       </c>
-      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>160</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="1"/>
       <c r="G24" s="1">
         <v>57</v>
       </c>
@@ -18025,12 +17842,6 @@
       <c r="J24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
       <c r="Q24" s="1">
         <v>52</v>
       </c>
@@ -18084,30 +17895,21 @@
       <c r="B25" s="1">
         <v>146</v>
       </c>
-      <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="1"/>
       <c r="G25" s="1">
         <v>59</v>
       </c>
-      <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
         <v>115</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
       <c r="Q25" s="1">
         <v>54</v>
       </c>
@@ -18162,7 +17964,6 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="1"/>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -18175,12 +17976,6 @@
       <c r="J26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
       <c r="Q26" s="1">
         <v>55</v>
       </c>
@@ -18232,23 +18027,15 @@
       <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="1"/>
       <c r="G27" s="1">
         <v>61</v>
       </c>
-      <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
         <v>120</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
       <c r="Q27" s="1">
         <v>56</v>
       </c>
@@ -18319,7 +18106,6 @@
       <c r="E28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="1"/>
       <c r="G28" s="1">
         <v>64</v>
       </c>
@@ -18332,12 +18118,6 @@
       <c r="J28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
       <c r="Q28" s="1">
         <v>59</v>
       </c>
@@ -18390,23 +18170,15 @@
       <c r="E29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="1"/>
       <c r="G29" s="1">
         <v>64</v>
       </c>
-      <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
         <v>128</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
       <c r="Q29" s="1">
         <v>61</v>
       </c>
@@ -18462,14 +18234,12 @@
       <c r="B30" s="1">
         <v>181</v>
       </c>
-      <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
         <v>369</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="1"/>
       <c r="G30" s="1">
         <v>65</v>
       </c>
@@ -18482,12 +18252,6 @@
       <c r="J30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
       <c r="Q30" s="1">
         <v>62</v>
       </c>
@@ -18528,23 +18292,15 @@
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
-      <c r="F31" s="1"/>
       <c r="G31" s="1">
         <v>66</v>
       </c>
-      <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
         <v>133</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
       <c r="Q31" s="1">
         <v>62</v>
       </c>
@@ -18600,30 +18356,21 @@
       <c r="B32" s="1">
         <v>60</v>
       </c>
-      <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="1"/>
       <c r="G32" s="1">
         <v>66</v>
       </c>
-      <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
       <c r="Q32" s="1">
         <v>64</v>
       </c>
@@ -18686,23 +18433,15 @@
       <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="1"/>
       <c r="G33" s="1">
         <v>66</v>
       </c>
-      <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
       <c r="Q33" s="1">
         <v>66</v>
       </c>
@@ -18750,14 +18489,12 @@
       <c r="B34" s="1">
         <v>187</v>
       </c>
-      <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
         <v>382</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="1"/>
       <c r="G34" s="1">
         <v>73</v>
       </c>
@@ -18770,12 +18507,6 @@
       <c r="J34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
       <c r="Q34" s="1">
         <v>68</v>
       </c>
@@ -18830,7 +18561,6 @@
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35" s="1"/>
       <c r="G35" s="1">
         <v>77</v>
       </c>
@@ -18843,12 +18573,6 @@
       <c r="J35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
       <c r="Q35" s="1">
         <v>70</v>
       </c>
@@ -18888,7 +18612,6 @@
       <c r="AI35">
         <v>153</v>
       </c>
-      <c r="AJ35"/>
       <c r="AK35" t="s">
         <v>311</v>
       </c>
@@ -18906,30 +18629,21 @@
       <c r="B36" s="1">
         <v>107</v>
       </c>
-      <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="1"/>
       <c r="G36" s="1">
         <v>81</v>
       </c>
-      <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
         <v>171</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
       <c r="Q36" s="1">
         <v>70</v>
       </c>
@@ -18989,30 +18703,21 @@
       <c r="B37" s="1">
         <v>149</v>
       </c>
-      <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="1"/>
       <c r="G37" s="1">
         <v>94</v>
       </c>
-      <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
         <v>201</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
       <c r="Q37" s="1">
         <v>70</v>
       </c>
@@ -19073,23 +18778,15 @@
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38" s="1"/>
       <c r="G38" s="1">
         <v>103</v>
       </c>
-      <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
         <v>215</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
       <c r="Q38" s="1">
         <v>70</v>
       </c>
@@ -19143,14 +18840,12 @@
       <c r="B39" s="1">
         <v>45</v>
       </c>
-      <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="1"/>
       <c r="G39" s="1">
         <v>110</v>
       </c>
@@ -19163,12 +18858,6 @@
       <c r="J39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
       <c r="Q39" s="1">
         <v>71</v>
       </c>
@@ -19226,30 +18915,21 @@
       <c r="B40" s="1">
         <v>152</v>
       </c>
-      <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="1"/>
       <c r="G40" s="1">
         <v>112</v>
       </c>
-      <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
         <v>238</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
       <c r="Q40" s="1">
         <v>72</v>
       </c>
@@ -19307,14 +18987,12 @@
       <c r="B41" s="1">
         <v>160</v>
       </c>
-      <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
         <v>324</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="1"/>
       <c r="G41" s="1">
         <v>124</v>
       </c>
@@ -19327,12 +19005,6 @@
       <c r="J41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
       <c r="Q41" s="1">
         <v>72</v>
       </c>
@@ -19388,25 +19060,21 @@
       <c r="B42" s="1">
         <v>164</v>
       </c>
-      <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="1"/>
       <c r="G42" s="1">
         <v>125</v>
       </c>
-      <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
         <v>259</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K42" s="1"/>
       <c r="L42" s="1">
         <v>125</v>
       </c>
@@ -19419,7 +19087,6 @@
       <c r="O42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P42" s="1"/>
       <c r="Q42" s="1">
         <v>72</v>
       </c>
@@ -19475,14 +19142,12 @@
       <c r="B43" s="1">
         <v>178</v>
       </c>
-      <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
         <v>362</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="1"/>
       <c r="G43" s="1">
         <v>126</v>
       </c>
@@ -19495,12 +19160,6 @@
       <c r="J43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
       <c r="Q43" s="1">
         <v>74</v>
       </c>
@@ -19567,23 +19226,15 @@
       <c r="E44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="1"/>
       <c r="G44" s="1">
         <v>126</v>
       </c>
-      <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
         <v>261</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
       <c r="Q44" s="1">
         <v>75</v>
       </c>
@@ -19652,23 +19303,15 @@
       <c r="E45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="1"/>
       <c r="G45" s="1">
         <v>129</v>
       </c>
-      <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
         <v>270</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
       <c r="Q45" s="1">
         <v>76</v>
       </c>
@@ -19709,23 +19352,15 @@
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
-      <c r="F46" s="1"/>
       <c r="G46" s="1">
         <v>130</v>
       </c>
-      <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
         <v>272</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
       <c r="Q46" s="1">
         <v>79</v>
       </c>
@@ -19776,30 +19411,21 @@
       <c r="B47" s="1">
         <v>4</v>
       </c>
-      <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="1"/>
       <c r="G47" s="1">
         <v>130</v>
       </c>
-      <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
         <v>273</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
       <c r="Q47" s="1">
         <v>80</v>
       </c>
@@ -19855,14 +19481,12 @@
       <c r="B48" s="1">
         <v>14</v>
       </c>
-      <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="1"/>
       <c r="G48" s="1">
         <v>144</v>
       </c>
@@ -19875,12 +19499,6 @@
       <c r="J48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
       <c r="Q48" s="1">
         <v>81</v>
       </c>
@@ -19941,7 +19559,6 @@
       <c r="E49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="1"/>
       <c r="G49" s="1">
         <v>152</v>
       </c>
@@ -19954,12 +19571,6 @@
       <c r="J49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
       <c r="Q49" s="1">
         <v>82</v>
       </c>
@@ -20015,34 +19626,26 @@
     <row r="50" spans="1:47">
       <c r="A50"/>
       <c r="B50" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="1"/>
       <c r="G50" s="1">
         <v>155</v>
       </c>
-      <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
         <v>315</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
       <c r="Q50" s="1">
         <v>83</v>
       </c>
@@ -20088,34 +19691,23 @@
     <row r="51" spans="1:47">
       <c r="A51"/>
       <c r="B51" s="1">
-        <v>40</v>
-      </c>
-      <c r="C51" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="1"/>
       <c r="G51" s="1">
         <v>162</v>
       </c>
-      <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
         <v>329</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
       <c r="Q51" s="1">
         <v>86</v>
       </c>
@@ -20159,32 +19751,23 @@
     <row r="52" spans="1:47">
       <c r="A52"/>
       <c r="B52" s="1">
-        <v>42</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>55</v>
+      </c>
       <c r="D52" s="1" t="s">
-        <v>474</v>
+        <v>108</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="1"/>
       <c r="G52" s="1">
         <v>162</v>
       </c>
-      <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
         <v>330</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
       <c r="Q52" s="1">
         <v>87</v>
       </c>
@@ -20228,32 +19811,26 @@
     <row r="53" spans="1:47">
       <c r="A53"/>
       <c r="B53" s="1">
-        <v>55</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="C53" s="1">
+        <v>93</v>
+      </c>
       <c r="D53" s="1" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="1"/>
       <c r="G53" s="1">
         <v>165</v>
       </c>
-      <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
         <v>338</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
       <c r="Q53" s="1">
         <v>88</v>
       </c>
@@ -20299,18 +19876,17 @@
     <row r="54" spans="1:47">
       <c r="A54"/>
       <c r="B54" s="1">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="C54" s="1">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="1"/>
       <c r="G54" s="1">
         <v>173</v>
       </c>
@@ -20323,12 +19899,6 @@
       <c r="J54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
       <c r="Q54" s="1">
         <v>89</v>
       </c>
@@ -20372,34 +19942,23 @@
     <row r="55" spans="1:47">
       <c r="A55"/>
       <c r="B55" s="1">
-        <v>138</v>
-      </c>
-      <c r="C55" s="1">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="1"/>
       <c r="G55" s="1">
         <v>174</v>
       </c>
-      <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
       <c r="Q55" s="1">
         <v>89</v>
       </c>
@@ -20441,16 +20000,14 @@
     <row r="56" spans="1:47">
       <c r="A56"/>
       <c r="B56" s="1">
-        <v>144</v>
-      </c>
-      <c r="C56" s="1"/>
+        <v>159</v>
+      </c>
       <c r="D56" s="1" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="1"/>
       <c r="G56" s="1">
         <v>175</v>
       </c>
@@ -20463,12 +20020,6 @@
       <c r="J56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
       <c r="Q56" s="1">
         <v>89</v>
       </c>
@@ -20511,27 +20062,6 @@
     </row>
     <row r="57" spans="1:47">
       <c r="A57"/>
-      <c r="B57" s="1">
-        <v>159</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
       <c r="Q57" s="1">
         <v>91</v>
       </c>
@@ -20580,23 +20110,15 @@
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
-      <c r="F58" s="1"/>
       <c r="G58" s="1">
         <v>176</v>
       </c>
-      <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>359</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
       <c r="Q58" s="1">
         <v>93</v>
       </c>
@@ -20640,30 +20162,21 @@
       <c r="B59" s="1">
         <v>51</v>
       </c>
-      <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="1"/>
       <c r="G59" s="1">
         <v>181</v>
       </c>
-      <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
         <v>370</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
       <c r="Q59" s="1">
         <v>93</v>
       </c>
@@ -20709,14 +20222,12 @@
       <c r="B60" s="1">
         <v>54</v>
       </c>
-      <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="1"/>
       <c r="G60" s="1">
         <v>183</v>
       </c>
@@ -20729,12 +20240,6 @@
       <c r="J60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
@@ -20766,14 +20271,12 @@
       <c r="B61" s="1">
         <v>66</v>
       </c>
-      <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="1"/>
       <c r="G61" s="1">
         <v>191</v>
       </c>
@@ -20786,12 +20289,6 @@
       <c r="J61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
       <c r="Q61" s="1">
         <v>94</v>
       </c>
@@ -20838,23 +20335,15 @@
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
-      <c r="F62" s="1"/>
       <c r="G62" s="1">
         <v>199</v>
       </c>
-      <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
         <v>401</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
@@ -20895,23 +20384,15 @@
       <c r="E63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="1"/>
       <c r="G63" s="1">
         <v>201</v>
       </c>
-      <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
         <v>404</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
       <c r="Q63" s="1">
         <v>95</v>
       </c>
@@ -20959,30 +20440,21 @@
       <c r="B64" s="1">
         <v>78</v>
       </c>
-      <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="1"/>
       <c r="G64" s="1">
         <v>202</v>
       </c>
-      <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
         <v>407</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
       <c r="Q64" s="1">
         <v>95</v>
       </c>
@@ -21028,30 +20500,21 @@
       <c r="B65" s="1">
         <v>87</v>
       </c>
-      <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
         <v>184</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="1"/>
       <c r="G65" s="1">
         <v>204</v>
       </c>
-      <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
         <v>411</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
       <c r="Q65" s="1">
         <v>96</v>
       </c>
@@ -21095,30 +20558,21 @@
       <c r="B66" s="1">
         <v>110</v>
       </c>
-      <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
         <v>475</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="1"/>
       <c r="G66" s="1">
         <v>204</v>
       </c>
-      <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
         <v>413</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
       <c r="Q66" s="1">
         <v>97</v>
       </c>
@@ -21175,23 +20629,15 @@
       <c r="E67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="1"/>
       <c r="G67" s="1">
         <v>206</v>
       </c>
-      <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
         <v>417</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
       <c r="Q67" s="1">
         <v>97</v>
       </c>
@@ -21237,36 +20683,30 @@
       <c r="B68" s="1">
         <v>221</v>
       </c>
-      <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
         <v>455</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="1"/>
       <c r="G68" s="1">
         <v>212</v>
       </c>
-      <c r="H68" s="1"/>
       <c r="I68" s="1" t="s">
         <v>433</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K68" s="1"/>
       <c r="L68" s="1">
         <v>214</v>
       </c>
-      <c r="M68" s="1"/>
       <c r="N68" s="1" t="s">
         <v>439</v>
       </c>
       <c r="O68" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P68" s="1"/>
       <c r="Q68" s="1">
         <v>99</v>
       </c>
@@ -21315,23 +20755,15 @@
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
-      <c r="F69" s="1"/>
       <c r="G69" s="1">
         <v>213</v>
       </c>
-      <c r="H69" s="1"/>
       <c r="I69" s="1" t="s">
         <v>435</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
       <c r="Q69" s="1">
         <v>100</v>
       </c>
@@ -21386,7 +20818,6 @@
       <c r="E70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="1"/>
       <c r="G70" s="1">
         <v>215</v>
       </c>
@@ -21399,12 +20830,6 @@
       <c r="J70" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
       <c r="Q70" s="1">
         <v>104</v>
       </c>
@@ -21459,7 +20884,6 @@
       <c r="E71" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="1"/>
       <c r="G71" s="1">
         <v>216</v>
       </c>
@@ -21472,12 +20896,6 @@
       <c r="J71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
       <c r="Q71" s="1">
         <v>105</v>
       </c>
@@ -21534,23 +20952,15 @@
       <c r="E72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="1"/>
       <c r="G72" s="1">
         <v>216</v>
       </c>
-      <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
         <v>444</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
       <c r="Q72" s="1">
         <v>107</v>
       </c>
@@ -21599,23 +21009,15 @@
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
-      <c r="F73" s="1"/>
       <c r="G73" s="1">
         <v>216</v>
       </c>
-      <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
         <v>445</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
       <c r="Q73" s="1">
         <v>107</v>
       </c>
@@ -21661,14 +21063,12 @@
       <c r="B74" s="1">
         <v>64</v>
       </c>
-      <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="1"/>
       <c r="G74" s="1">
         <v>219</v>
       </c>
@@ -21681,12 +21081,6 @@
       <c r="J74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
       <c r="Q74" s="1">
         <v>108</v>
       </c>
@@ -21734,14 +21128,12 @@
       <c r="B75" s="1">
         <v>184</v>
       </c>
-      <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
         <v>375</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="1"/>
       <c r="G75" s="1">
         <v>4</v>
       </c>
@@ -21754,12 +21146,6 @@
       <c r="J75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
       <c r="Q75" s="1">
         <v>108</v>
       </c>
@@ -21805,14 +21191,12 @@
       <c r="B76" s="1">
         <v>184</v>
       </c>
-      <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
         <v>376</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F76" s="1"/>
       <c r="G76" s="1">
         <v>66</v>
       </c>
@@ -21825,12 +21209,6 @@
       <c r="J76" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
       <c r="Q76" s="1">
         <v>109</v>
       </c>
@@ -21877,23 +21255,15 @@
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
-      <c r="F77" s="1"/>
       <c r="G77" s="1">
         <v>94</v>
       </c>
-      <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
         <v>199</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
       <c r="Q77" s="1">
         <v>111</v>
       </c>
@@ -21939,14 +21309,12 @@
       <c r="B78" s="1">
         <v>72</v>
       </c>
-      <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="1"/>
       <c r="G78" s="1">
         <v>156</v>
       </c>
@@ -21959,14 +21327,9 @@
       <c r="J78" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
       <c r="Q78" s="1">
         <v>111</v>
       </c>
@@ -22012,14 +21375,12 @@
       <c r="B79" s="1">
         <v>160</v>
       </c>
-      <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="1"/>
       <c r="G79" s="1">
         <v>201</v>
       </c>
@@ -22032,14 +21393,9 @@
       <c r="J79" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
       <c r="Q79" s="1">
         <v>112</v>
       </c>
@@ -22087,32 +21443,24 @@
       <c r="B80" s="1">
         <v>186</v>
       </c>
-      <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
         <v>380</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="1"/>
       <c r="G80" s="1">
         <v>215</v>
       </c>
-      <c r="H80" s="1"/>
       <c r="I80" s="1" t="s">
         <v>442</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="K80" s="1"/>
       <c r="L80" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
       <c r="Q80" s="1">
         <v>113</v>
       </c>
@@ -22161,25 +21509,18 @@
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
-      <c r="F81" s="1"/>
       <c r="G81" s="1">
         <v>217</v>
       </c>
-      <c r="H81" s="1"/>
       <c r="I81" s="1" t="s">
         <v>448</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="K81" s="1"/>
       <c r="L81" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
       <c r="Q81" s="1">
         <v>118</v>
       </c>
@@ -22236,25 +21577,18 @@
       <c r="E82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="1"/>
       <c r="G82" s="1">
         <v>220</v>
       </c>
-      <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
         <v>452</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
       <c r="Q82" s="1">
         <v>119</v>
       </c>
@@ -22298,26 +21632,21 @@
       <c r="B83" s="1">
         <v>23</v>
       </c>
-      <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="1"/>
       <c r="G83" s="1">
         <v>85</v>
       </c>
-      <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
       <c r="M83" s="1">
         <v>86</v>
       </c>
@@ -22377,26 +21706,21 @@
       <c r="B84" s="1">
         <v>35</v>
       </c>
-      <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="1"/>
       <c r="G84" s="1">
         <v>76</v>
       </c>
-      <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
       <c r="M84" s="1">
         <v>68</v>
       </c>
@@ -22463,7 +21787,6 @@
       <c r="E85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="1"/>
       <c r="G85" s="1">
         <v>94</v>
       </c>
@@ -22476,12 +21799,6 @@
       <c r="J85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
       <c r="Q85" s="1">
         <v>123</v>
       </c>
@@ -22536,7 +21853,6 @@
       <c r="E86" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="1"/>
       <c r="G86" s="1">
         <v>134</v>
       </c>
@@ -22549,12 +21865,6 @@
       <c r="J86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
       <c r="Q86" s="1">
         <v>127</v>
       </c>
@@ -22602,14 +21912,12 @@
       <c r="B87" s="1">
         <v>81</v>
       </c>
-      <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
         <v>172</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="1"/>
       <c r="G87" s="1">
         <v>98</v>
       </c>
@@ -22622,12 +21930,9 @@
       <c r="J87" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
       <c r="M87" s="1">
         <v>98</v>
       </c>
-      <c r="N87" s="1"/>
       <c r="O87" s="1" t="s">
         <v>209</v>
       </c>
@@ -22686,17 +21991,6 @@
       <c r="E88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
       <c r="Q88" s="1">
         <v>127</v>
       </c>
@@ -22742,24 +22036,12 @@
       <c r="B89" s="1">
         <v>153</v>
       </c>
-      <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
         <v>312</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
       <c r="Q89" s="1">
         <v>127</v>
       </c>
@@ -22812,17 +22094,6 @@
       <c r="E90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
       <c r="Q90" s="1">
         <v>128</v>
       </c>
@@ -22868,24 +22139,12 @@
       <c r="B91" s="1">
         <v>164</v>
       </c>
-      <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
         <v>334</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
       <c r="Q91" s="1">
         <v>131</v>
       </c>
@@ -22938,17 +22197,6 @@
       <c r="E92" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
       <c r="Q92" s="1">
         <v>133</v>
       </c>
@@ -23003,17 +22251,6 @@
       <c r="E93" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
@@ -23054,17 +22291,6 @@
       <c r="E94" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
@@ -23097,17 +22323,6 @@
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
       <c r="Q95" s="1">
         <v>140</v>
       </c>
@@ -23155,24 +22370,12 @@
       <c r="B96" s="1">
         <v>2</v>
       </c>
-      <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
@@ -23212,17 +22415,6 @@
       <c r="E97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
       <c r="Q97" s="1">
         <v>146</v>
       </c>
@@ -23278,17 +22470,6 @@
       <c r="E98" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
       <c r="Q98" s="1">
         <v>146</v>
       </c>
@@ -23333,24 +22514,12 @@
       <c r="B99" s="1">
         <v>25</v>
       </c>
-      <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
       <c r="Q99" s="1">
         <v>146</v>
       </c>
@@ -23395,24 +22564,12 @@
       <c r="B100" s="1">
         <v>36</v>
       </c>
-      <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
       <c r="Q100" s="1">
         <v>147</v>
       </c>
@@ -23466,17 +22623,6 @@
       <c r="E101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
       <c r="Q101" s="1">
         <v>148</v>
       </c>
@@ -23530,17 +22676,6 @@
       <c r="E102" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
       <c r="Q102" s="1">
         <v>149</v>
       </c>
@@ -23594,17 +22729,6 @@
       <c r="E103" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
       <c r="Q103" s="1">
         <v>154</v>
       </c>
@@ -23651,24 +22775,12 @@
       <c r="B104" s="1">
         <v>62</v>
       </c>
-      <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
       <c r="Q104" s="1">
         <v>155</v>
       </c>
@@ -23724,17 +22836,6 @@
       <c r="E105" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
@@ -23765,24 +22866,12 @@
       <c r="B106" s="1">
         <v>77</v>
       </c>
-      <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
         <v>162</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
       <c r="Q106" s="1">
         <v>157</v>
       </c>
@@ -23825,24 +22914,12 @@
       <c r="B107" s="1">
         <v>81</v>
       </c>
-      <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
       <c r="Q107" s="1">
         <v>159</v>
       </c>
@@ -23896,17 +22973,6 @@
       <c r="E108" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
       <c r="Q108" s="1">
         <v>159</v>
       </c>
@@ -23951,24 +23017,12 @@
       <c r="B109" s="1">
         <v>103</v>
       </c>
-      <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
         <v>216</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
       <c r="Q109" s="1">
         <v>160</v>
       </c>
@@ -24022,17 +23076,6 @@
       <c r="E110" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
       <c r="Q110" s="1">
         <v>163</v>
       </c>
@@ -24088,17 +23131,6 @@
       <c r="E111" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
       <c r="Q111" s="1">
         <v>164</v>
       </c>
@@ -24143,24 +23175,12 @@
       <c r="B112" s="1">
         <v>109</v>
       </c>
-      <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
       <c r="Q112" s="1">
         <v>165</v>
       </c>
@@ -24216,17 +23236,6 @@
       <c r="E113" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
       <c r="Q113" s="1">
         <v>167</v>
       </c>
@@ -24282,17 +23291,6 @@
       <c r="E114" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
       <c r="Q114" s="1">
         <v>168</v>
       </c>
@@ -24339,24 +23337,12 @@
       <c r="B115" s="1">
         <v>141</v>
       </c>
-      <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
         <v>286</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
       <c r="Q115" s="1">
         <v>169</v>
       </c>
@@ -24403,24 +23389,12 @@
       <c r="B116" s="1">
         <v>141</v>
       </c>
-      <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
         <v>287</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
       <c r="Q116" s="1">
         <v>169</v>
       </c>
@@ -24465,24 +23439,12 @@
       <c r="B117" s="1">
         <v>149</v>
       </c>
-      <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
         <v>303</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
       <c r="Q117" s="1">
         <v>169</v>
       </c>
@@ -24534,17 +23496,6 @@
       <c r="E118" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
       <c r="Q118" s="1">
         <v>172</v>
       </c>
@@ -24598,17 +23549,6 @@
       <c r="E119" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
       <c r="Q119" s="1">
         <v>174</v>
       </c>
@@ -24662,17 +23602,6 @@
       <c r="E120" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
       <c r="Q120" s="1">
         <v>174</v>
       </c>
@@ -24717,24 +23646,12 @@
       <c r="B121" s="1">
         <v>188</v>
       </c>
-      <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
       <c r="Q121" s="1">
         <v>175</v>
       </c>
@@ -24788,17 +23705,6 @@
       <c r="E122" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
       <c r="Q122" s="1">
         <v>178</v>
       </c>
@@ -24854,17 +23760,6 @@
       <c r="E123" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
       <c r="Q123" s="1">
         <v>180</v>
       </c>
@@ -24920,17 +23815,6 @@
       <c r="E124" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
       <c r="Q124" s="1">
         <v>180</v>
       </c>
@@ -24984,17 +23868,6 @@
       <c r="E125" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
       <c r="Q125" s="1">
         <v>182</v>
       </c>
@@ -25039,24 +23912,12 @@
       <c r="B126" s="1">
         <v>204</v>
       </c>
-      <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
         <v>412</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
       <c r="Q126" s="1">
         <v>186</v>
       </c>
@@ -25100,21 +23961,18 @@
       <c r="AU126" s="1"/>
     </row>
     <row r="127" spans="2:47">
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
+      <c r="B127" s="1">
+        <v>34</v>
+      </c>
+      <c r="C127" s="1">
+        <v>34</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="Q127" s="1">
         <v>187</v>
       </c>
@@ -26772,7 +25630,7 @@
   <sheetPr/>
   <dimension ref="A1:AC151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/海峡两岸汉字对照表附注.xlsx
+++ b/海峡两岸汉字对照表附注.xlsx
@@ -1472,9 +1472,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1515,8 +1515,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1529,8 +1544,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,62 +1593,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1615,22 +1607,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,7 +1657,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,13 +1681,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,7 +1741,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,25 +1771,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,103 +1819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1857,6 +1857,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1868,45 +1877,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1936,6 +1906,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1944,82 +1944,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2031,50 +2031,50 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -16196,8 +16196,8 @@
   <sheetPr/>
   <dimension ref="A1:AU167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:E56"/>
+    <sheetView tabSelected="1" topLeftCell="K104" workbookViewId="0">
+      <selection activeCell="S118" sqref="S118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -23501,7 +23501,7 @@
       </c>
       <c r="R118" s="1"/>
       <c r="S118" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="T118" s="1" t="s">
         <v>8</v>

--- a/海峡两岸汉字对照表附注.xlsx
+++ b/海峡两岸汉字对照表附注.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23160" windowHeight="11620" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="29400" windowHeight="12700" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="脚注说明" sheetId="1" r:id="rId1"/>
@@ -1473,9 +1473,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1500,24 +1500,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1530,18 +1522,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1552,8 +1559,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1567,25 +1590,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1599,22 +1605,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1635,6 +1628,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1646,12 +1646,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,7 +1663,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,7 +1735,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,91 +1795,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,43 +1819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1852,7 +1852,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1861,22 +1876,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1908,31 +1923,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1944,143 +1944,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12997,11 +12997,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A2:D259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D257"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -13020,7 +13020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:4">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:4">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:4">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:4">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:4">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>11</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:4">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>13</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:4">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>13</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:4">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>16</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:4">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>17</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>18</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:4">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>18</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>19</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:4">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>21</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:4">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>21</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:4">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>26</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:4">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>29</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:4">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>31</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:4">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>33</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:4">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>33</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:4">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>40</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:4">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>40</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:4">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>43</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:4">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>44</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:4">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>46</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:4">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>48</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:4">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>51</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:4">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>52</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:4">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>52</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:4">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>54</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:4">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>55</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:4">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>56</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:4">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>57</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:4">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>59</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:4">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>61</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:4">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>62</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:4">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>62</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:4">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>64</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:4">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>66</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:4">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>68</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:4">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>69</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:4">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>69</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:4">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>70</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:4">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>70</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:4">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>70</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:4">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>70</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:4">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>71</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:4">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>72</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:4">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>72</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:4">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>72</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:4">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>74</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:4">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>75</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:4">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>75</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:4">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>76</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:4">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>76</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:4">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>78</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:4">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>79</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:4">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>80</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:4">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>80</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:4">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>81</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:4">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>82</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:4">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>82</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:4">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>83</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:4">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>85</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:4">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>86</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:4">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>87</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:4">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>88</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:4">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>89</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:4">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>89</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:4">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:4">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>89</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:4">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:4">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>93</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:4">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:4">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>93</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:4">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>94</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:4">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>94</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:4">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>94</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:4">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>95</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:4">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>95</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:4">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>96</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:4">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>96</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:4">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>97</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:4">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>97</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:4">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>98</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:4">
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>99</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:4">
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>100</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:4">
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>103</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:4">
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>104</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:4">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>104</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:4">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>105</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:4">
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>107</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:4">
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>107</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:4">
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>108</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:4">
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>108</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:4">
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>109</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:4">
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>111</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:4">
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>111</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:4">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>111</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:4">
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>112</v>
       </c>
@@ -14517,7 +14517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:4">
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>112</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:4">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>113</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:4">
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>115</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:4">
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>115</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:4">
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>117</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:4">
+    <row r="132" spans="1:4">
       <c r="A132">
         <v>118</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:4">
+    <row r="133" spans="1:4">
       <c r="A133">
         <v>118</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:4">
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>118</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:4">
+    <row r="135" spans="1:4">
       <c r="A135">
         <v>119</v>
       </c>
@@ -14636,7 +14636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:4">
+    <row r="136" spans="1:4">
       <c r="A136">
         <v>122</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:4">
+    <row r="137" spans="1:4">
       <c r="A137">
         <v>123</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:4">
+    <row r="138" spans="1:4">
       <c r="A138">
         <v>123</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:4">
+    <row r="139" spans="1:4">
       <c r="A139">
         <v>125</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:4">
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>127</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:4">
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>127</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:4">
+    <row r="142" spans="1:4">
       <c r="A142">
         <v>127</v>
       </c>
@@ -14725,7 +14725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:4">
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>127</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:4">
+    <row r="145" spans="1:4">
       <c r="A145">
         <v>128</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:4">
+    <row r="147" spans="1:4">
       <c r="A147">
         <v>131</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:4">
+    <row r="148" spans="1:4">
       <c r="A148">
         <v>133</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:4">
+    <row r="149" spans="1:4">
       <c r="A149">
         <v>134</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:4">
+    <row r="150" spans="1:4">
       <c r="A150">
         <v>135</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:4">
+    <row r="152" spans="1:4">
       <c r="A152">
         <v>139</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:4">
+    <row r="153" spans="1:4">
       <c r="A153">
         <v>140</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:4">
+    <row r="154" spans="1:4">
       <c r="A154">
         <v>145</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:4">
+    <row r="155" spans="1:4">
       <c r="A155">
         <v>145</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:4">
+    <row r="158" spans="1:4">
       <c r="A158">
         <v>146</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:4">
+    <row r="159" spans="1:4">
       <c r="A159">
         <v>146</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:4">
+    <row r="160" spans="1:4">
       <c r="A160">
         <v>146</v>
       </c>
@@ -14947,7 +14947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:4">
+    <row r="161" spans="1:4">
       <c r="A161">
         <v>147</v>
       </c>
@@ -14961,7 +14961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:4">
+    <row r="162" spans="1:4">
       <c r="A162">
         <v>148</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:4">
+    <row r="163" spans="1:4">
       <c r="A163">
         <v>149</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:4">
+    <row r="164" spans="1:4">
       <c r="A164">
         <v>152</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:4">
+    <row r="166" spans="1:4">
       <c r="A166">
         <v>153</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:4">
+    <row r="168" spans="1:4">
       <c r="A168">
         <v>154</v>
       </c>
@@ -15047,7 +15047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:4">
+    <row r="169" spans="1:4">
       <c r="A169">
         <v>155</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:4">
+    <row r="170" spans="1:4">
       <c r="A170">
         <v>156</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:4">
+    <row r="172" spans="1:4">
       <c r="A172">
         <v>157</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:4">
+    <row r="173" spans="1:4">
       <c r="A173">
         <v>159</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:4">
+    <row r="174" spans="1:4">
       <c r="A174">
         <v>159</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:4">
+    <row r="175" spans="1:4">
       <c r="A175">
         <v>160</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:4">
+    <row r="177" spans="1:4">
       <c r="A177">
         <v>161</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:4">
+    <row r="178" spans="1:4">
       <c r="A178">
         <v>163</v>
       </c>
@@ -15175,7 +15175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:4">
+    <row r="179" spans="1:4">
       <c r="A179">
         <v>164</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:4">
+    <row r="180" spans="1:4">
       <c r="A180">
         <v>165</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:4">
+    <row r="181" spans="1:4">
       <c r="A181">
         <v>165</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:4">
+    <row r="183" spans="1:4">
       <c r="A183">
         <v>167</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:4">
+    <row r="184" spans="1:4">
       <c r="A184">
         <v>168</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:4">
+    <row r="185" spans="1:4">
       <c r="A185">
         <v>169</v>
       </c>
@@ -15267,7 +15267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:4">
+    <row r="186" spans="1:4">
       <c r="A186">
         <v>169</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:4">
+    <row r="187" spans="1:4">
       <c r="A187">
         <v>169</v>
       </c>
@@ -15303,7 +15303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:4">
+    <row r="189" spans="1:4">
       <c r="A189">
         <v>171</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:4">
+    <row r="191" spans="1:4">
       <c r="A191">
         <v>172</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:4">
+    <row r="193" spans="1:4">
       <c r="A193">
         <v>174</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:4">
+    <row r="194" spans="1:4">
       <c r="A194">
         <v>174</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:4">
+    <row r="195" spans="1:4">
       <c r="A195">
         <v>175</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:4">
+    <row r="196" spans="1:4">
       <c r="A196">
         <v>175</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:4">
+    <row r="197" spans="1:4">
       <c r="A197">
         <v>178</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:4">
+    <row r="199" spans="1:4">
       <c r="A199">
         <v>179</v>
       </c>
@@ -15433,7 +15433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:4">
+    <row r="200" spans="1:4">
       <c r="A200">
         <v>180</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:4">
+    <row r="201" spans="1:4">
       <c r="A201">
         <v>180</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="1:4">
+    <row r="202" spans="1:4">
       <c r="A202">
         <v>181</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:4">
+    <row r="204" spans="1:4">
       <c r="A204">
         <v>182</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="1:4">
+    <row r="205" spans="1:4">
       <c r="A205">
         <v>185</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:4">
+    <row r="207" spans="1:4">
       <c r="A207">
         <v>186</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:4">
+    <row r="208" spans="1:4">
       <c r="A208">
         <v>187</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:4">
+    <row r="209" spans="1:4">
       <c r="A209">
         <v>187</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:4">
+    <row r="210" spans="1:4">
       <c r="A210">
         <v>188</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="1:4">
+    <row r="211" spans="1:4">
       <c r="A211">
         <v>188</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:4">
+    <row r="212" spans="1:4">
       <c r="A212">
         <v>189</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:4">
+    <row r="214" spans="1:4">
       <c r="A214">
         <v>189</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:4">
+    <row r="215" spans="1:4">
       <c r="A215">
         <v>190</v>
       </c>
@@ -15633,7 +15633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:4">
+    <row r="216" spans="1:4">
       <c r="A216">
         <v>194</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:4">
+    <row r="217" spans="1:4">
       <c r="A217">
         <v>195</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:4">
+    <row r="218" spans="1:4">
       <c r="A218">
         <v>197</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:4">
+    <row r="219" spans="1:4">
       <c r="A219">
         <v>198</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:4">
+    <row r="220" spans="1:4">
       <c r="A220">
         <v>199</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:4">
+    <row r="221" spans="1:4">
       <c r="A221">
         <v>200</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:4">
+    <row r="222" spans="1:4">
       <c r="A222">
         <v>201</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:4">
+    <row r="223" spans="1:4">
       <c r="A223">
         <v>202</v>
       </c>
@@ -15742,7 +15742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="1:4">
+    <row r="224" spans="1:4">
       <c r="A224">
         <v>202</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:4">
+    <row r="225" spans="1:4">
       <c r="A225">
         <v>203</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:4">
+    <row r="226" spans="1:4">
       <c r="A226">
         <v>204</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="1:4">
+    <row r="227" spans="1:4">
       <c r="A227">
         <v>205</v>
       </c>
@@ -15795,7 +15795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:4">
+    <row r="228" spans="1:4">
       <c r="A228">
         <v>206</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:4">
+    <row r="229" spans="1:4">
       <c r="A229">
         <v>206</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:4">
+    <row r="230" spans="1:4">
       <c r="A230">
         <v>206</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:4">
+    <row r="233" spans="1:4">
       <c r="A233">
         <v>208</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:4">
+    <row r="234" spans="1:4">
       <c r="A234">
         <v>208</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:4">
+    <row r="235" spans="1:4">
       <c r="A235">
         <v>208</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:4">
+    <row r="236" spans="1:4">
       <c r="A236">
         <v>209</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:4">
+    <row r="237" spans="1:4">
       <c r="A237">
         <v>209</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:4">
+    <row r="238" spans="1:4">
       <c r="A238">
         <v>210</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:4">
+    <row r="239" spans="1:4">
       <c r="A239">
         <v>211</v>
       </c>
@@ -15942,7 +15942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:4">
+    <row r="240" spans="1:4">
       <c r="A240">
         <v>211</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:4">
+    <row r="242" spans="1:4">
       <c r="A242">
         <v>211</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:4">
+    <row r="243" spans="1:4">
       <c r="A243">
         <v>213</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:4">
+    <row r="244" spans="1:4">
       <c r="A244">
         <v>213</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:4">
+    <row r="245" spans="1:4">
       <c r="A245">
         <v>214</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:4">
+    <row r="247" spans="1:4">
       <c r="A247">
         <v>214</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:4">
+    <row r="248" spans="1:4">
       <c r="A248">
         <v>215</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="1:4">
+    <row r="249" spans="1:4">
       <c r="A249">
         <v>217</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="1:4">
+    <row r="250" spans="1:4">
       <c r="A250">
         <v>217</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:4">
+    <row r="251" spans="1:4">
       <c r="A251">
         <v>217</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:4">
+    <row r="252" spans="1:4">
       <c r="A252">
         <v>218</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:4">
+    <row r="254" spans="1:4">
       <c r="A254">
         <v>220</v>
       </c>
@@ -16119,7 +16119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:4">
+    <row r="255" spans="1:4">
       <c r="A255">
         <v>220</v>
       </c>
@@ -16130,7 +16130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:4">
+    <row r="256" spans="1:4">
       <c r="A256">
         <v>221</v>
       </c>
@@ -16155,7 +16155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:4">
+    <row r="258" spans="1:4">
       <c r="A258">
         <v>221</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="1:4">
+    <row r="259" spans="1:4">
       <c r="A259">
         <v>71</v>
       </c>
@@ -16179,11 +16179,6 @@
     </row>
   </sheetData>
   <autoFilter ref="D1:D259">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="兼做规范字、异体字"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16196,8 +16191,8 @@
   <sheetPr/>
   <dimension ref="A1:AU167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K104" workbookViewId="0">
-      <selection activeCell="S118" sqref="S118"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S151" sqref="S151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
